--- a/server/DATA/default_details/project_manager_details.xlsx
+++ b/server/DATA/default_details/project_manager_details.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>midhun</t>
-  </si>
-  <si>
-    <t>AAm</t>
-  </si>
-  <si>
-    <t>EW</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1059,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1149,28 +1143,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="4:6">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
